--- a/data/data_education/files/data_education.xlsx
+++ b/data/data_education/files/data_education.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="112">
   <si>
     <t>ma_nganh</t>
   </si>
@@ -62,7 +62,10 @@
     <t>DU LỊCH ĐỊA CHẤT</t>
   </si>
   <si>
-    <t>Toán - Văn - Anh; Toán - Địa - Anh; Văn - Toán - Địa; Toán - Hóa - Sử</t>
+    <t>Toán - Văn - Anh; 
+Toán - Địa - Anh;
+ Văn - Toán - Địa;
+ Toán - Hóa - Sử</t>
   </si>
   <si>
     <t>4 năm</t>
@@ -79,7 +82,10 @@
     <t>ĐỊA CHẤT HỌC</t>
   </si>
   <si>
-    <t>Toán - Lý -Hóa; Toán – Hóa – Địa; Văn - Toán - Địa; Toán – Văn - Anh</t>
+    <t>Toán - Lý -Hóa; 
+Toán – Hóa – Địa; 
+Văn - Toán - Địa; 
+Toán – Văn - Anh</t>
   </si>
   <si>
     <t>338.000/tín chỉ 
@@ -143,7 +149,9 @@
     <t>Kỹ thuật Robot và Trí tuệ nhân tạo</t>
   </si>
   <si>
-    <t>A00 (Toán – Lý – Hóa); A01 (Toán – Lý – Anh); C01 (Toán – Lý – Văn)</t>
+    <t>A00 (Toán – Lý – Hóa); 
+A01 (Toán – Lý – Anh); 
+C01 (Toán – Lý – Văn)</t>
   </si>
   <si>
     <t xml:space="preserve"> 4,5 năm
@@ -164,13 +172,249 @@
   </si>
   <si>
     <t>10-20 triệu/tháng</t>
+  </si>
+  <si>
+    <t>KỸ THUẬT TÀI NGUYÊN NƯỚC</t>
+  </si>
+  <si>
+    <t>A00 (Toán - Lý – Hóa)
+A01 (Toán - Lý – Anh)
+C04 (Văn – Toán – Địa)
+D01 (Văn - Toán - Anh)</t>
+  </si>
+  <si>
+    <t>445.100 đồng/tín chỉ</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>KỸ THUẬT VẬT LIỆU</t>
+  </si>
+  <si>
+    <t>A00, A01, C01, D01</t>
+  </si>
+  <si>
+    <t>KỸ THUẬT CÔNG TRÌNH GIAO THÔNG</t>
+  </si>
+  <si>
+    <t>A00, A01, D01, C04</t>
+  </si>
+  <si>
+    <t>10- 15 triệu đồng/ 1 tháng</t>
+  </si>
+  <si>
+    <t>AN TOÀN, VỆ SINH LAO ĐỘNG</t>
+  </si>
+  <si>
+    <t>A00; A01; D01; B00</t>
+  </si>
+  <si>
+    <t>8-12 triệu đồng/tháng</t>
+  </si>
+  <si>
+    <t>CÔNG NGHỆ KỸ THUẬT ĐIỆN, ĐIỆN TỬ</t>
+  </si>
+  <si>
+    <t>A00: Toán - Lý - Hóa; 
+A01: Toán - Lý - Anh; 
+C01: Toán - Lý - Văn</t>
+  </si>
+  <si>
+    <t>10.000.000-20.000.000đ/tháng</t>
+  </si>
+  <si>
+    <t>CÔNG NGHỆ KỸ THUẬT HÓA HỌC</t>
+  </si>
+  <si>
+    <t>A00, A01, A06, D07, B00</t>
+  </si>
+  <si>
+    <t>10-15 triệu đồng/tháng</t>
+  </si>
+  <si>
+    <t>CÔNG NGHỆ SỐ TRONG THĂM DÒ VÀ KHAI THÁC TÀI NGUYÊN THIÊN NHIÊN</t>
+  </si>
+  <si>
+    <t>A00: Toán - Lý - Hóa;
+A01: Toán - Lý - Anh;
+D07: Toán - Hóa - Anh;
+D01: Toán - Văn - Anh</t>
+  </si>
+  <si>
+    <t>5.000.000 -15.000.000 đồng/tháng</t>
+  </si>
+  <si>
+    <t>ĐÁ QUÝ, ĐÁ MỸ NGHỆ</t>
+  </si>
+  <si>
+    <t>A00: Toán - Lý -Hóa; 
+C04: Toán – Toán – Địa;  
+D01: Văn - Toán – Anh;
+D10: Toán – Địa – Anh.</t>
+  </si>
+  <si>
+    <t>8-15 triệu triệu đồng/tháng</t>
+  </si>
+  <si>
+    <t>ĐỊA KỸ THUẬT XÂY DỰNG</t>
+  </si>
+  <si>
+    <t>Toán - Lý - Hóa; 
+Toán - Anh - Vật lý;
+ Toán - Văn - Địa lý;
+ Toán - Văn - Anh</t>
+  </si>
+  <si>
+    <t>ĐỊA TIN HỌC</t>
+  </si>
+  <si>
+    <t>A00 (Toán, Lý, Hóa);
+ C04 (Toán, Văn, Địa); 
+D01(Toán, Văn, Anh); 
+D10 (Toán, Địa, Anh);</t>
+  </si>
+  <si>
+    <t>HOÁ DƯỢC</t>
+  </si>
+  <si>
+    <t>A00, A01, B00, D07</t>
+  </si>
+  <si>
+    <t>KẾ TOÁN</t>
+  </si>
+  <si>
+    <t>15-25 triệu/tháng</t>
+  </si>
+  <si>
+    <t>A00,A01,C01</t>
+  </si>
+  <si>
+    <t>9-17 triệu đồng/tháng</t>
+  </si>
+  <si>
+    <t>KỸ THUẬT DẦU KHÍ</t>
+  </si>
+  <si>
+    <t>A00: Toán – Lý – Hóa;
+A01: Toán – Lý – Anh;
+D07: Toán – Hóa – Anh;
+D01: Toán – Văn – Anh.</t>
+  </si>
+  <si>
+    <t>500-2000 USD/tháng</t>
+  </si>
+  <si>
+    <t>KỸ THUẬT ĐỊA CHẤT</t>
+  </si>
+  <si>
+    <t>Toán - Lý - Hóa; 
+Toán - Lý - Địa; 
+Văn - Toán - Địa; 
+Toán - Văn - Anh</t>
+  </si>
+  <si>
+    <t>KỸ THUẬT ĐỊA VẬT LÝ</t>
+  </si>
+  <si>
+    <t>A00: Toán - Lý - Hóa;
+A01: Toán - Lý - Anh;
+D07: Toán - Hóa - Anh;
+A04: Toán - Lý - Địa</t>
+  </si>
+  <si>
+    <t>Kỹ thuật điện</t>
+  </si>
+  <si>
+    <t>Kỹ thuật điều khiển và tự động hóa</t>
+  </si>
+  <si>
+    <t>A00 (Toán – Lý – Hóa);
+ A01 (Toán – Lý – Anh); 
+C01 (Toán – Lý – Văn)</t>
+  </si>
+  <si>
+    <t>KỸ THUẬT HOÁ HỌC (Chương trình Tiên tiến)</t>
+  </si>
+  <si>
+    <t>KỸ THUẬT MỎ</t>
+  </si>
+  <si>
+    <t>A00; A01; D01; C01</t>
+  </si>
+  <si>
+    <t>KỸ THUẬT MÔI TRƯỜNG</t>
+  </si>
+  <si>
+    <t>A00; A01; B00; D01</t>
+  </si>
+  <si>
+    <t>12-20 triệu đồng/tháng</t>
+  </si>
+  <si>
+    <t>KỸ THUẬT TUYỂN KHOÁNG</t>
+  </si>
+  <si>
+    <t>KỸ THUẬT TRẮC ĐỊA - BẢN ĐỒ</t>
+  </si>
+  <si>
+    <t>A00, C04, D01, D10</t>
+  </si>
+  <si>
+    <t>KỸ THUẬT XÂY DỰNG</t>
+  </si>
+  <si>
+    <t>A00, A01. D01. C04</t>
+  </si>
+  <si>
+    <t>5,5 – 6 triệu đồng cho 1 học kỳ</t>
+  </si>
+  <si>
+    <t>NGÀNH QUẢN LÝ DỮ LIỆU KHOA HỌC TRÁI ĐẤT</t>
+  </si>
+  <si>
+    <t>15- 30 triệu đồng/ 1 tháng</t>
+  </si>
+  <si>
+    <t>QUẢN LÝ ĐẤT ĐAI</t>
+  </si>
+  <si>
+    <t>Toán - Lý - Hóa; 
+Toán - Lý - Anh; 
+Toán - Văn - Địa; 
+Toán - Văn - Anh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">338.000/tín chỉ 
+</t>
+  </si>
+  <si>
+    <t>QUẢN TRỊ KINH DOANH</t>
+  </si>
+  <si>
+    <t>8 -10 triệu đồng/tháng</t>
+  </si>
+  <si>
+    <t>TÀI CHÍNH NGÂN HÀNG</t>
+  </si>
+  <si>
+    <t>8 -15 triệu đồng/tháng</t>
+  </si>
+  <si>
+    <t>QUẢN LÝ TÀI NGUYÊN VÀ MÔI TRƯỜNG</t>
+  </si>
+  <si>
+    <t>A00, B08, C04, D01</t>
+  </si>
+  <si>
+    <t>12 -15 triệu đồng/tháng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -178,14 +422,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -233,34 +487,34 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -479,10 +733,10 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="22.13"/>
-    <col customWidth="1" min="2" max="2" width="13.38"/>
-    <col customWidth="1" min="3" max="3" width="12.5"/>
-    <col customWidth="1" min="4" max="4" width="11.25"/>
-    <col customWidth="1" min="5" max="5" width="6.5"/>
+    <col customWidth="1" min="2" max="2" width="25.25"/>
+    <col customWidth="1" min="3" max="3" width="19.13"/>
+    <col customWidth="1" min="4" max="4" width="8.88"/>
+    <col customWidth="1" min="5" max="5" width="13.0"/>
     <col customWidth="1" min="6" max="6" width="20.38"/>
     <col customWidth="1" min="7" max="7" width="32.13"/>
   </cols>
@@ -497,7 +751,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -511,845 +765,1428 @@
       </c>
     </row>
     <row r="2" ht="161.25" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>25.0</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" ht="120.75" customHeight="1">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>7080105.0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>23.0</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" ht="75.75" customHeight="1">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>7440201.0</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>16.0</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" ht="93.0" customHeight="1">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>7520114.0</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>7520116.0</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" ht="97.5" customHeight="1">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>7520130.0</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" ht="47.25" customHeight="1">
-      <c r="A8" s="3">
+    <row r="8" ht="70.5" customHeight="1">
+      <c r="A8" s="2">
         <v>7520218.0</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="4">
         <v>22.5</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" ht="63.75" customHeight="1">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>7480109.0</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="4">
         <v>24.5</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" ht="105.75" customHeight="1">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>7480201.0</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>24.0</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="A11" s="5">
+        <v>7580212.0</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="A12" s="4">
+        <v>7520309.0</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="4">
+        <v>19.0</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="A13" s="4">
+        <v>7580205.0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="A14" s="5">
+        <v>7850202.0</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="4">
+        <v>17.0</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="A15" s="5">
+        <v>7510301.0</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="4">
+        <v>22.5</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="A16" s="4">
+        <v>7510401.0</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="4">
+        <v>18.5</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="A17" s="5">
+        <v>7520606.0</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="A18" s="4">
+        <v>7520505.0</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="A19" s="4">
+        <v>7580211.0</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="A20" s="4">
+        <v>7480206.0</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="A21" s="4">
+        <v>7720203.0</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+      <c r="A22" s="4">
+        <v>7340301.0</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="4">
+        <v>23.25</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
+      <c r="A23" s="5">
+        <v>7520103.0</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="4">
+        <v>20.15</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
+      <c r="A24" s="4">
+        <v>7520604.0</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="4">
+        <v>18.5</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
+      <c r="A25" s="4">
+        <v>7520501.0</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
+      <c r="A26" s="4">
+        <v>7520502.0</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
+      <c r="A27" s="4">
+        <v>7520201.0</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="4">
+        <v>20.25</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
+      <c r="A28" s="4">
+        <v>7520216.0</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
+      <c r="A29" s="4">
+        <v>7520301.0</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="4">
+        <v>19.0</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
+      <c r="A30" s="4">
+        <v>7520601.0</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="4">
+        <v>17.0</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
+      <c r="A31" s="4">
+        <v>7520320.0</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="4">
+        <v>15.5</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
+      <c r="A32" s="4">
+        <v>7520607.0</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
+      <c r="A33" s="4">
+        <v>7520503.0</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
+      <c r="A34" s="4">
+        <v>7580201.0</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="4">
+        <v>21.0</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
+      <c r="A35" s="4">
+        <v>7500502.0</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
+      <c r="A36" s="4">
+        <v>7850103.0</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="4">
+        <v>19.5</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
+      <c r="A37" s="4">
+        <v>7340101.0</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="4">
+        <v>23.25</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
+      <c r="A38" s="4">
+        <v>7340201.0</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="4">
+        <v>23.25</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
+      <c r="A39" s="4">
+        <v>7850101.0</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
     </row>
     <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
     </row>
     <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
     </row>
     <row r="44" ht="12.75" customHeight="1">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
     </row>
     <row r="45" ht="12.75" customHeight="1">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
     </row>
     <row r="46" ht="12.75" customHeight="1">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
     </row>
     <row r="47" ht="12.75" customHeight="1">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
     </row>
     <row r="48" ht="12.75" customHeight="1">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
     </row>
     <row r="49" ht="12.75" customHeight="1">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
     </row>
     <row r="50" ht="12.75" customHeight="1">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
     </row>
     <row r="51" ht="12.75" customHeight="1">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
     </row>
     <row r="52" ht="12.75" customHeight="1">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
     </row>
     <row r="53" ht="12.75" customHeight="1">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
     </row>
     <row r="54" ht="12.75" customHeight="1">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
     </row>
     <row r="55" ht="12.75" customHeight="1">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
     </row>
     <row r="56" ht="12.75" customHeight="1">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
     </row>
     <row r="57" ht="12.75" customHeight="1">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
     </row>
     <row r="58" ht="12.75" customHeight="1">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
     </row>
     <row r="59" ht="12.75" customHeight="1">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
     </row>
     <row r="60" ht="12.75" customHeight="1">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
     </row>
     <row r="61" ht="12.75" customHeight="1">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
     </row>
     <row r="62" ht="12.75" customHeight="1">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
     </row>
     <row r="63" ht="12.75" customHeight="1">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
     </row>
     <row r="64" ht="12.75" customHeight="1">
-      <c r="A64" s="10"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
     </row>
     <row r="65" ht="12.75" customHeight="1">
-      <c r="A65" s="10"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
     </row>
     <row r="66" ht="12.75" customHeight="1">
-      <c r="A66" s="10"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
     </row>
     <row r="67" ht="12.75" customHeight="1">
-      <c r="A67" s="10"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
       <c r="G67" s="9"/>
     </row>
     <row r="68" ht="12.75" customHeight="1">
-      <c r="A68" s="10"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
       <c r="G68" s="9"/>
     </row>
     <row r="69" ht="12.75" customHeight="1">
-      <c r="A69" s="10"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
       <c r="G69" s="9"/>
     </row>
     <row r="70" ht="12.75" customHeight="1">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
     </row>
     <row r="71" ht="12.75" customHeight="1">
-      <c r="A71" s="10"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
     </row>
     <row r="72" ht="12.75" customHeight="1">
-      <c r="A72" s="10"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
     </row>
     <row r="73" ht="12.75" customHeight="1">
-      <c r="A73" s="10"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
     </row>
     <row r="74" ht="12.75" customHeight="1">
-      <c r="A74" s="10"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
     </row>
     <row r="75" ht="12.75" customHeight="1">
-      <c r="A75" s="10"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
     </row>
     <row r="76" ht="12.75" customHeight="1">
-      <c r="A76" s="10"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
     </row>
     <row r="77" ht="12.75" customHeight="1">
-      <c r="A77" s="10"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
     </row>
     <row r="78" ht="12.75" customHeight="1">
-      <c r="A78" s="10"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
     </row>
     <row r="79" ht="12.75" customHeight="1">
-      <c r="A79" s="10"/>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
     </row>
     <row r="80" ht="12.75" customHeight="1">
-      <c r="A80" s="10"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
     </row>
     <row r="81" ht="12.75" customHeight="1">
-      <c r="A81" s="10"/>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
     </row>
     <row r="82" ht="12.75" customHeight="1">
-      <c r="A82" s="10"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
     </row>
     <row r="83" ht="12.75" customHeight="1">
-      <c r="A83" s="10"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
     </row>
     <row r="84" ht="12.75" customHeight="1">
-      <c r="A84" s="10"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
     </row>
     <row r="85" ht="12.75" customHeight="1">
-      <c r="A85" s="10"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
     </row>
     <row r="86" ht="12.75" customHeight="1">
-      <c r="A86" s="10"/>
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
+      <c r="A86" s="8"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
     </row>
     <row r="87" ht="12.75" customHeight="1">
-      <c r="A87" s="10"/>
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
+      <c r="A87" s="8"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
     </row>
     <row r="88" ht="12.75" customHeight="1">
-      <c r="A88" s="10"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="10"/>
+      <c r="A88" s="8"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
     </row>
     <row r="89" ht="12.75" customHeight="1">
-      <c r="A89" s="10"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
-    </row>
-    <row r="90" ht="12.75" customHeight="1"/>
-    <row r="91" ht="12.75" customHeight="1"/>
-    <row r="92" ht="12.75" customHeight="1"/>
-    <row r="93" ht="12.75" customHeight="1"/>
-    <row r="94" ht="12.75" customHeight="1"/>
-    <row r="95" ht="12.75" customHeight="1"/>
-    <row r="96" ht="12.75" customHeight="1"/>
-    <row r="97" ht="12.75" customHeight="1"/>
-    <row r="98" ht="12.75" customHeight="1"/>
-    <row r="99" ht="12.75" customHeight="1"/>
-    <row r="100" ht="12.75" customHeight="1"/>
+      <c r="A89" s="8"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+    </row>
+    <row r="90" ht="12.75" customHeight="1">
+      <c r="A90" s="10"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+    </row>
+    <row r="91" ht="12.75" customHeight="1">
+      <c r="A91" s="10"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+    </row>
+    <row r="92" ht="12.75" customHeight="1">
+      <c r="A92" s="10"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+    </row>
+    <row r="93" ht="12.75" customHeight="1">
+      <c r="A93" s="10"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+    </row>
+    <row r="94" ht="12.75" customHeight="1">
+      <c r="A94" s="10"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+    </row>
+    <row r="95" ht="12.75" customHeight="1">
+      <c r="A95" s="10"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+    </row>
+    <row r="96" ht="12.75" customHeight="1">
+      <c r="A96" s="10"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+    </row>
+    <row r="97" ht="12.75" customHeight="1">
+      <c r="A97" s="10"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+    </row>
+    <row r="98" ht="12.75" customHeight="1">
+      <c r="A98" s="10"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+    </row>
+    <row r="99" ht="12.75" customHeight="1">
+      <c r="A99" s="10"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+    </row>
+    <row r="100" ht="12.75" customHeight="1">
+      <c r="A100" s="10"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+    </row>
     <row r="101" ht="12.75" customHeight="1"/>
     <row r="102" ht="12.75" customHeight="1"/>
     <row r="103" ht="12.75" customHeight="1"/>
